--- a/products/burials-memorials/pre-need/research/pre-integration-research-may23/Pre-Need Pre-Integration UT Quantitative Results 0623.xlsx
+++ b/products/burials-memorials/pre-need/research/pre-integration-research-may23/Pre-Need Pre-Integration UT Quantitative Results 0623.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boozallen.sharepoint.com/teams/mbms/Shared Documents/Self-Service/UX Documents/Research/May 2023 - Pre-Integration Usability Testing/Session Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="734" documentId="13_ncr:1_{6B813763-7A69-664D-BFC6-DC319BC596B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695C320D-3000-48C9-BE5D-E0C8E3A79EED}"/>
+  <xr:revisionPtr revIDLastSave="735" documentId="13_ncr:1_{6B813763-7A69-664D-BFC6-DC319BC596B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574E3A60-2874-4CEE-9D94-84E663BA2705}"/>
   <bookViews>
     <workbookView xWindow="6640" yWindow="500" windowWidth="29200" windowHeight="19560" xr2:uid="{CFF2EF67-9F19-364D-A248-A47DA4DB83D7}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -849,9 +849,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A5C41-5964-AE45-B653-68B1645FC6CA}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.125" defaultRowHeight="15.95"/>
@@ -1397,7 +1394,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="30"/>
@@ -1406,7 +1403,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
       <c r="G1" s="30"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="66" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="30"/>
@@ -1416,15 +1413,15 @@
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
-      <c r="Q1" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="94" t="s">
+      <c r="Q1" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="93" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="27">
@@ -1469,10 +1466,10 @@
       <c r="O2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="92">
+      <c r="R2" s="91">
         <v>2</v>
       </c>
     </row>
@@ -1517,10 +1514,10 @@
         <v>18</v>
       </c>
       <c r="O3" s="29"/>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="92">
+      <c r="R3" s="91">
         <v>1</v>
       </c>
     </row>
@@ -1569,10 +1566,10 @@
         <f>AVERAGE(B4:N4)</f>
         <v>51.46153846153846</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="92">
+      <c r="R4" s="91">
         <v>0</v>
       </c>
     </row>
@@ -1598,10 +1595,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="47">
         <v>2</v>
       </c>
     </row>
@@ -1644,14 +1641,14 @@
       <c r="N6" s="12">
         <v>2</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="39">
         <f>AVERAGE(B6:N6)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="47">
         <v>1</v>
       </c>
     </row>
@@ -1694,14 +1691,14 @@
       <c r="N7" s="12">
         <v>2</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="39">
         <f>AVERAGE(B7:N7)</f>
         <v>1.96875</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="47">
         <v>0</v>
       </c>
     </row>
@@ -1744,14 +1741,14 @@
       <c r="N8" s="16">
         <v>2</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <f>AVERAGE(B8:N8)</f>
         <v>1.8333333333333333</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="48" t="s">
+      <c r="R8" s="47" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1773,86 +1770,86 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="90" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="78"/>
+      <c r="O10" s="77"/>
     </row>
     <row r="11" spans="1:18" ht="15.75">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="71">
         <v>0</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>2</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="72">
+      <c r="E11" s="71">
         <v>2</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="73">
-        <v>2</v>
-      </c>
-      <c r="H11" s="73">
+      <c r="G11" s="72">
+        <v>2</v>
+      </c>
+      <c r="H11" s="72">
         <v>0</v>
       </c>
-      <c r="I11" s="73">
-        <v>2</v>
-      </c>
-      <c r="J11" s="73">
-        <v>2</v>
-      </c>
-      <c r="K11" s="73">
-        <v>2</v>
-      </c>
-      <c r="L11" s="73">
+      <c r="I11" s="72">
+        <v>2</v>
+      </c>
+      <c r="J11" s="72">
+        <v>2</v>
+      </c>
+      <c r="K11" s="72">
+        <v>2</v>
+      </c>
+      <c r="L11" s="72">
         <v>0</v>
       </c>
-      <c r="M11" s="73">
-        <v>2</v>
-      </c>
-      <c r="N11" s="73">
-        <v>2</v>
-      </c>
-      <c r="O11" s="75">
+      <c r="M11" s="72">
+        <v>2</v>
+      </c>
+      <c r="N11" s="72">
+        <v>2</v>
+      </c>
+      <c r="O11" s="74">
         <f>AVERAGE(B11:N11)</f>
         <v>1.4545454545454546</v>
       </c>
@@ -1899,11 +1896,11 @@
       <c r="N12" s="12">
         <v>2</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="39">
         <f>AVERAGE(B12:N12)</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="41" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1950,7 +1947,7 @@
         <f>AVERAGE(B13:N13)</f>
         <v>1.5</v>
       </c>
-      <c r="Q13" s="43" t="s">
+      <c r="Q13" s="42" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1993,11 +1990,11 @@
       <c r="N14" s="16">
         <v>2</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="39">
         <f>AVERAGE(B14:N14)</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2017,92 +2014,92 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="88" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="90" t="s">
+      <c r="F16" s="76"/>
+      <c r="G16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="89" t="s">
+      <c r="L16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="90" t="s">
+      <c r="M16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="87" t="s">
+      <c r="N16" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="78"/>
-      <c r="Q16" s="46" t="s">
+      <c r="O16" s="77"/>
+      <c r="Q16" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="72">
-        <v>2</v>
-      </c>
-      <c r="C17" s="72">
+      <c r="B17" s="71">
+        <v>2</v>
+      </c>
+      <c r="C17" s="71">
         <v>2</v>
       </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="73">
-        <v>2</v>
-      </c>
-      <c r="H17" s="73">
-        <v>2</v>
-      </c>
-      <c r="I17" s="73">
-        <v>2</v>
-      </c>
-      <c r="J17" s="73">
+      <c r="G17" s="72">
+        <v>2</v>
+      </c>
+      <c r="H17" s="72">
+        <v>2</v>
+      </c>
+      <c r="I17" s="72">
+        <v>2</v>
+      </c>
+      <c r="J17" s="72">
         <v>0.5</v>
       </c>
-      <c r="K17" s="73">
-        <v>2</v>
-      </c>
-      <c r="L17" s="73">
-        <v>2</v>
-      </c>
-      <c r="M17" s="73">
+      <c r="K17" s="72">
+        <v>2</v>
+      </c>
+      <c r="L17" s="72">
+        <v>2</v>
+      </c>
+      <c r="M17" s="72">
         <v>1.5</v>
       </c>
-      <c r="N17" s="73">
-        <v>2</v>
-      </c>
-      <c r="O17" s="74">
+      <c r="N17" s="72">
+        <v>2</v>
+      </c>
+      <c r="O17" s="73">
         <f>AVERAGE(B17:N17)</f>
         <v>1.8</v>
       </c>
@@ -2146,7 +2143,7 @@
       <c r="N18" s="12">
         <v>2</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="39">
         <f>AVERAGE(B18:N18)</f>
         <v>1.8863636363636365</v>
       </c>
@@ -2190,7 +2187,7 @@
       <c r="N19" s="12">
         <v>1</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="39">
         <f>AVERAGE(B19:N19)</f>
         <v>1.9090909090909092</v>
       </c>
@@ -2234,7 +2231,7 @@
       <c r="N20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="39">
         <f>AVERAGE(B20:N20)</f>
         <v>2</v>
       </c>
@@ -2278,7 +2275,7 @@
       <c r="N21" s="12">
         <v>2</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="39">
         <f>AVERAGE(B21:N21)</f>
         <v>1.8181818181818181</v>
       </c>
@@ -2322,7 +2319,7 @@
       <c r="N22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="38">
         <f>AVERAGE(B22:N22)</f>
         <v>1.5</v>
       </c>
@@ -2366,7 +2363,7 @@
       <c r="N23" s="12">
         <v>2</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="39">
         <f>AVERAGE(B23:N23)</f>
         <v>2</v>
       </c>
@@ -2452,7 +2449,7 @@
       <c r="N25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <f>AVERAGE(B25:N25)</f>
         <v>1.7142857142857142</v>
       </c>
@@ -2540,7 +2537,7 @@
       <c r="N27" s="16">
         <v>2</v>
       </c>
-      <c r="O27" s="64">
+      <c r="O27" s="63">
         <f>AVERAGE(B27:N27)</f>
         <v>1.4</v>
       </c>
@@ -2563,86 +2560,86 @@
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" ht="15.75">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="58">
-        <v>2</v>
-      </c>
-      <c r="C30" s="58">
-        <v>2</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="58">
-        <v>2</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61">
-        <v>2</v>
-      </c>
-      <c r="H30" s="61">
-        <v>2</v>
-      </c>
-      <c r="I30" s="61">
-        <v>2</v>
-      </c>
-      <c r="J30" s="61">
-        <v>2</v>
-      </c>
-      <c r="K30" s="61">
-        <v>2</v>
-      </c>
-      <c r="L30" s="61">
-        <v>2</v>
-      </c>
-      <c r="M30" s="61">
-        <v>2</v>
-      </c>
-      <c r="N30" s="61">
-        <v>2</v>
-      </c>
-      <c r="O30" s="62">
+      <c r="B30" s="57">
+        <v>2</v>
+      </c>
+      <c r="C30" s="57">
+        <v>2</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="57">
+        <v>2</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60">
+        <v>2</v>
+      </c>
+      <c r="H30" s="60">
+        <v>2</v>
+      </c>
+      <c r="I30" s="60">
+        <v>2</v>
+      </c>
+      <c r="J30" s="60">
+        <v>2</v>
+      </c>
+      <c r="K30" s="60">
+        <v>2</v>
+      </c>
+      <c r="L30" s="60">
+        <v>2</v>
+      </c>
+      <c r="M30" s="60">
+        <v>2</v>
+      </c>
+      <c r="N30" s="60">
+        <v>2</v>
+      </c>
+      <c r="O30" s="61">
         <f>AVERAGE(B30:N30)</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="30.75">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" spans="1:15" ht="15.75">
       <c r="A32" s="37"/>
@@ -2662,146 +2659,146 @@
       <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="88" t="s">
+      <c r="A33" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="88" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="90" t="s">
+      <c r="F33" s="76"/>
+      <c r="G33" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="87" t="s">
+      <c r="K33" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="89" t="s">
+      <c r="L33" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="90" t="s">
+      <c r="M33" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="87" t="s">
+      <c r="N33" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="78"/>
-      <c r="Q33" s="91" t="s">
+      <c r="O33" s="77"/>
+      <c r="Q33" s="90" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="30.75">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="80" t="s">
+      <c r="D34" s="80"/>
+      <c r="E34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82" t="s">
+      <c r="F34" s="80"/>
+      <c r="G34" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="80" t="s">
+      <c r="H34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="80" t="s">
+      <c r="I34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="80" t="s">
+      <c r="J34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="K34" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="L34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="80" t="s">
+      <c r="M34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="80" t="s">
+      <c r="N34" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="O34" s="63" t="s">
+      <c r="O34" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="99" t="s">
+      <c r="Q34" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="R34" s="50">
+      <c r="R34" s="49">
         <f>AVERAGE(C35,H35,K35,N35)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="30.75">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="52">
-        <v>2</v>
-      </c>
-      <c r="C35" s="52">
-        <v>2</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="52">
+      <c r="B35" s="51">
+        <v>2</v>
+      </c>
+      <c r="C35" s="51">
+        <v>2</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="51">
         <v>1.5</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55">
-        <v>2</v>
-      </c>
-      <c r="H35" s="55">
-        <v>2</v>
-      </c>
-      <c r="I35" s="55">
-        <v>2</v>
-      </c>
-      <c r="J35" s="55">
-        <v>2</v>
-      </c>
-      <c r="K35" s="55">
-        <v>2</v>
-      </c>
-      <c r="L35" s="55">
-        <v>2</v>
-      </c>
-      <c r="M35" s="55">
-        <v>2</v>
-      </c>
-      <c r="N35" s="55">
-        <v>2</v>
-      </c>
-      <c r="O35" s="56">
+      <c r="F35" s="53"/>
+      <c r="G35" s="54">
+        <v>2</v>
+      </c>
+      <c r="H35" s="54">
+        <v>2</v>
+      </c>
+      <c r="I35" s="54">
+        <v>2</v>
+      </c>
+      <c r="J35" s="54">
+        <v>2</v>
+      </c>
+      <c r="K35" s="54">
+        <v>2</v>
+      </c>
+      <c r="L35" s="54">
+        <v>2</v>
+      </c>
+      <c r="M35" s="54">
+        <v>2</v>
+      </c>
+      <c r="N35" s="54">
+        <v>2</v>
+      </c>
+      <c r="O35" s="55">
         <f>AVERAGE(B35:N35)</f>
         <v>1.9545454545454546</v>
       </c>
-      <c r="Q35" s="100" t="s">
+      <c r="Q35" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="R35" s="50">
+      <c r="R35" s="49">
         <f>AVERAGE(B35,E35,I35,L35)</f>
         <v>1.875</v>
       </c>
@@ -2822,95 +2819,95 @@
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
-      <c r="Q36" s="101" t="s">
+      <c r="Q36" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="R36" s="50">
+      <c r="R36" s="49">
         <f>AVERAGE(G35,J35,M35)</f>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="88" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="90" t="s">
+      <c r="F37" s="76"/>
+      <c r="G37" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="87" t="s">
+      <c r="H37" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="89" t="s">
+      <c r="I37" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="90" t="s">
+      <c r="J37" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="87" t="s">
+      <c r="K37" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="89" t="s">
+      <c r="L37" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="90" t="s">
+      <c r="M37" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="87" t="s">
+      <c r="N37" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="O37" s="78"/>
+      <c r="O37" s="77"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="23">
         <v>2</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="72">
         <v>2</v>
       </c>
       <c r="D38" s="22"/>
-      <c r="E38" s="73">
+      <c r="E38" s="72">
         <v>1.6</v>
       </c>
       <c r="F38" s="22"/>
-      <c r="G38" s="73">
+      <c r="G38" s="72">
         <v>1.6</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="72">
         <v>1.8</v>
       </c>
-      <c r="I38" s="73">
-        <v>2</v>
-      </c>
-      <c r="J38" s="73">
+      <c r="I38" s="72">
+        <v>2</v>
+      </c>
+      <c r="J38" s="72">
         <v>1.6</v>
       </c>
-      <c r="K38" s="73">
-        <v>2</v>
-      </c>
-      <c r="L38" s="73">
-        <v>2</v>
-      </c>
-      <c r="M38" s="73">
+      <c r="K38" s="72">
+        <v>2</v>
+      </c>
+      <c r="L38" s="72">
+        <v>2</v>
+      </c>
+      <c r="M38" s="72">
         <v>1.8</v>
       </c>
-      <c r="N38" s="73">
-        <v>2</v>
-      </c>
-      <c r="O38" s="84">
+      <c r="N38" s="72">
+        <v>2</v>
+      </c>
+      <c r="O38" s="83">
         <f>AVERAGE(B38:N38)</f>
         <v>1.8545454545454547</v>
       </c>
@@ -3007,30 +3004,30 @@
         <f>AVERAGE(N6:N39)</f>
         <v>1.8444444444444446</v>
       </c>
-      <c r="O40" s="40">
+      <c r="O40" s="39">
         <f>AVERAGE(B40:N40)</f>
         <v>1.8248912016346226</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75"/>
     <row r="42" spans="1:18" ht="15.75">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="97"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="96"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
       <c r="A43" s="1" t="s">
@@ -3061,12 +3058,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <UpdatedinMural xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293">true</UpdatedinMural>
+    <_Flow_SignoffStatus xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293" xsi:nil="true"/>
+    <Note xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293" xsi:nil="true"/>
+    <TaxCatchAll xmlns="74ea459b-7bbf-43af-834e-d16fbea12f70" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ART xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3375,24 +3380,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <UpdatedinMural xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293">true</UpdatedinMural>
-    <_Flow_SignoffStatus xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293" xsi:nil="true"/>
-    <Note xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293" xsi:nil="true"/>
-    <TaxCatchAll xmlns="74ea459b-7bbf-43af-834e-d16fbea12f70" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ART xmlns="f98f2965-9a5c-4a08-b9ff-515d1f258293" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE938FC7-B0A7-4076-B47B-20E5EAC41396}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DADBAF-796D-4BD9-B40C-009DF229BEC9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3400,7 +3397,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37DADBAF-796D-4BD9-B40C-009DF229BEC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE938FC7-B0A7-4076-B47B-20E5EAC41396}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
